--- a/DOC/第一阶段/技能设计.xlsx
+++ b/DOC/第一阶段/技能设计.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="综述" sheetId="1" r:id="rId1"/>
     <sheet name="音素" sheetId="2" r:id="rId2"/>
     <sheet name="战斗要素" sheetId="6" r:id="rId3"/>
     <sheet name="音素效果和规则" sheetId="3" r:id="rId4"/>
-    <sheet name="技能map" sheetId="5" r:id="rId5"/>
-    <sheet name="技能属性" sheetId="4" r:id="rId6"/>
+    <sheet name="技能map&amp;属性" sheetId="5" r:id="rId5"/>
+    <sheet name="固有技能" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
   <si>
     <t>暂时只考虑PVE，PVP闲置。</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -566,6 +566,179 @@
   </si>
   <si>
     <t>一次发射多个弹道的技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱打断</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟壑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是大招了，炫酷一点比较好，有什么创意大家就放进来，放到后面做。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>把对手和自己拉入一个街机格斗的横版视角，技能不能躲避，对搂（决斗）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将地图切换成一个新的地图，地图中有随机的熔岩，造成伤害。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>以释放者为中心召唤一个黑洞，谜团大，无视地形，快速拉倒释放者附近。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>固有技能的释放大概在15个音节左右，每场每人可以带一个技能使用一次，吟唱时双方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暂停，等待一方吟唱，决定吟唱是否成功和具体可能有变化的小效果。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE 烈焰风暴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰枪术</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE 暴风雪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通防御</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性强化防御</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性强化防御</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速恢复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动加速</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹弹道</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字其实不用公开随便起</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础元音</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>aae</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ta</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之就是要有规律的填满这张表了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下的问题还有设计一套文字对应，在游戏中显示。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +746,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +805,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -712,7 +901,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -738,8 +927,11 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -751,10 +943,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="9" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
     <cellStyle name="40% - 着色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="标题" xfId="9" builtinId="15"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -1125,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1246,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1360,10 +1554,16 @@
         <v>44</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1371,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,10 +1692,28 @@
       <c r="A12" t="s">
         <v>131</v>
       </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1727,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1831,12 +2049,168 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1844,12 +2218,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
